--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H2">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N2">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O2">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P2">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q2">
-        <v>0.3504075482542223</v>
+        <v>1.010251418465778</v>
       </c>
       <c r="R2">
-        <v>3.153667934288001</v>
+        <v>9.092262766192</v>
       </c>
       <c r="S2">
-        <v>0.0138802208114006</v>
+        <v>0.02693513357033817</v>
       </c>
       <c r="T2">
-        <v>0.0138802208114006</v>
+        <v>0.02693513357033817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H3">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.110785</v>
       </c>
       <c r="O3">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P3">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q3">
-        <v>0.408769511483889</v>
+        <v>0.7554026425911112</v>
       </c>
       <c r="R3">
-        <v>3.678925603355001</v>
+        <v>6.79862378332</v>
       </c>
       <c r="S3">
-        <v>0.01619203441430536</v>
+        <v>0.02014040337451627</v>
       </c>
       <c r="T3">
-        <v>0.01619203441430536</v>
+        <v>0.02014040337451627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H4">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N4">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O4">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P4">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q4">
-        <v>0.2588634384655556</v>
+        <v>1.115296917015111</v>
       </c>
       <c r="R4">
-        <v>2.32977094619</v>
+        <v>10.037672253136</v>
       </c>
       <c r="S4">
-        <v>0.01025400766564973</v>
+        <v>0.02973583692266402</v>
       </c>
       <c r="T4">
-        <v>0.01025400766564973</v>
+        <v>0.02973583692266403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H5">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I5">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J5">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N5">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O5">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P5">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q5">
-        <v>0.1719132362804445</v>
+        <v>0.2715105430373334</v>
       </c>
       <c r="R5">
-        <v>1.547219126524001</v>
+        <v>2.443594887336</v>
       </c>
       <c r="S5">
-        <v>0.006809766775468718</v>
+        <v>0.007238963102444142</v>
       </c>
       <c r="T5">
-        <v>0.006809766775468719</v>
+        <v>0.007238963102444143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.103153</v>
       </c>
       <c r="I6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N6">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O6">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P6">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q6">
-        <v>5.123878871009778</v>
+        <v>7.993829236859778</v>
       </c>
       <c r="R6">
-        <v>46.114909839088</v>
+        <v>71.944463131738</v>
       </c>
       <c r="S6">
-        <v>0.2029652914008788</v>
+        <v>0.2131299736854428</v>
       </c>
       <c r="T6">
-        <v>0.2029652914008789</v>
+        <v>0.2131299736854428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.103153</v>
       </c>
       <c r="I7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.110785</v>
       </c>
       <c r="O7">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P7">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q7">
         <v>5.977284089456111</v>
@@ -883,10 +883,10 @@
         <v>53.795556805105</v>
       </c>
       <c r="S7">
-        <v>0.2367700793760589</v>
+        <v>0.1593652257196126</v>
       </c>
       <c r="T7">
-        <v>0.2367700793760589</v>
+        <v>0.1593652257196126</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.103153</v>
       </c>
       <c r="I8">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J8">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N8">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O8">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P8">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q8">
-        <v>3.785263500854445</v>
+        <v>8.825024088117111</v>
       </c>
       <c r="R8">
-        <v>34.06737150769</v>
+        <v>79.42521679305399</v>
       </c>
       <c r="S8">
-        <v>0.1499405292008057</v>
+        <v>0.2352911346918721</v>
       </c>
       <c r="T8">
-        <v>0.1499405292008057</v>
+        <v>0.2352911346918721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.103153</v>
       </c>
       <c r="I9">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J9">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N9">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O9">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P9">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q9">
-        <v>2.513823127991556</v>
+        <v>2.148384924164333</v>
       </c>
       <c r="R9">
-        <v>22.624408151924</v>
+        <v>19.335464317479</v>
       </c>
       <c r="S9">
-        <v>0.09957667941563272</v>
+        <v>0.0572798353312358</v>
       </c>
       <c r="T9">
-        <v>0.09957667941563275</v>
+        <v>0.05727983533123581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H10">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N10">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O10">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P10">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q10">
-        <v>1.959677593637333</v>
+        <v>3.015519204539556</v>
       </c>
       <c r="R10">
-        <v>17.637098342736</v>
+        <v>27.139672840856</v>
       </c>
       <c r="S10">
-        <v>0.07762606100912554</v>
+        <v>0.08039920664654257</v>
       </c>
       <c r="T10">
-        <v>0.07762606100912556</v>
+        <v>0.08039920664654257</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H11">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I11">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J11">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.110785</v>
       </c>
       <c r="O11">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P11">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q11">
-        <v>2.286070767048334</v>
+        <v>2.254816112362223</v>
       </c>
       <c r="R11">
-        <v>20.574636903435</v>
+        <v>20.29334501126</v>
       </c>
       <c r="S11">
-        <v>0.09055503283307614</v>
+        <v>0.06011748368070659</v>
       </c>
       <c r="T11">
-        <v>0.09055503283307614</v>
+        <v>0.06011748368070659</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H12">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I12">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J12">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N12">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O12">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P12">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q12">
-        <v>1.447711051603334</v>
+        <v>3.329071566294222</v>
       </c>
       <c r="R12">
-        <v>13.02939946443</v>
+        <v>29.961644096648</v>
       </c>
       <c r="S12">
-        <v>0.05734622204194229</v>
+        <v>0.08875908082319341</v>
       </c>
       <c r="T12">
-        <v>0.05734622204194229</v>
+        <v>0.08875908082319342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H13">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I13">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J13">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N13">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O13">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P13">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q13">
-        <v>0.9614362443586668</v>
+        <v>0.8104371266386667</v>
       </c>
       <c r="R13">
-        <v>8.652926199228</v>
+        <v>7.293934139747999</v>
       </c>
       <c r="S13">
-        <v>0.03808407505565542</v>
+        <v>0.02160772245143154</v>
       </c>
       <c r="T13">
-        <v>0.03808407505565543</v>
+        <v>0.02160772245143155</v>
       </c>
     </row>
   </sheetData>
